--- a/9/1/1/5/Mensual 2009 a 2021 - Trimestral.xlsx
+++ b/9/1/1/5/Mensual 2009 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Serie</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>II-2021</t>
+  </si>
+  <si>
+    <t>III-2021</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2366,28 +2369,28 @@
         <v>8026.2</v>
       </c>
       <c r="C45">
-        <v>299.3</v>
+        <v>299.9</v>
       </c>
       <c r="D45">
-        <v>1252.7</v>
+        <v>1252.6</v>
       </c>
       <c r="E45">
-        <v>997.9</v>
+        <v>997.8</v>
       </c>
       <c r="F45">
-        <v>462.9</v>
+        <v>462.5</v>
       </c>
       <c r="G45">
-        <v>1626.9</v>
+        <v>1626.4</v>
       </c>
       <c r="H45">
         <v>198.4</v>
       </c>
       <c r="I45">
-        <v>1007.8</v>
+        <v>1007.9</v>
       </c>
       <c r="J45">
-        <v>633.6</v>
+        <v>634.1</v>
       </c>
       <c r="K45">
         <v>1500.8</v>
@@ -2479,6 +2482,47 @@
       </c>
       <c r="M47">
         <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>8345.200000000001</v>
+      </c>
+      <c r="C48">
+        <v>335.7</v>
+      </c>
+      <c r="D48">
+        <v>1281.6</v>
+      </c>
+      <c r="E48">
+        <v>1035.5</v>
+      </c>
+      <c r="F48">
+        <v>478.7</v>
+      </c>
+      <c r="G48">
+        <v>1740.4</v>
+      </c>
+      <c r="H48">
+        <v>187</v>
+      </c>
+      <c r="I48">
+        <v>1100.8</v>
+      </c>
+      <c r="J48">
+        <v>649.9</v>
+      </c>
+      <c r="K48">
+        <v>1493</v>
+      </c>
+      <c r="L48">
+        <v>26.5</v>
+      </c>
+      <c r="M48">
+        <v>16.1</v>
       </c>
     </row>
   </sheetData>
